--- a/Data/SalesTrend/SalesTrend_CRB.xlsx
+++ b/Data/SalesTrend/SalesTrend_CRB.xlsx
@@ -573,31 +573,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>85.89</v>
+        <v>88.39</v>
       </c>
       <c r="C2">
-        <v>75.44</v>
+        <v>78.45999999999999</v>
       </c>
       <c r="D2">
-        <v>86.3</v>
+        <v>88.16</v>
       </c>
       <c r="E2">
-        <v>33.06</v>
+        <v>33.86</v>
       </c>
       <c r="F2">
-        <v>46.47</v>
+        <v>49.01</v>
       </c>
       <c r="G2">
-        <v>76.95</v>
+        <v>77.06</v>
       </c>
       <c r="H2">
-        <v>82.11</v>
+        <v>83.42</v>
       </c>
       <c r="I2">
-        <v>53.99</v>
+        <v>54.91</v>
       </c>
       <c r="J2">
-        <v>94.23999999999999</v>
+        <v>96.41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -605,31 +605,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>81.3</v>
+        <v>81.04000000000001</v>
       </c>
       <c r="C3">
-        <v>70.17</v>
+        <v>71.25</v>
       </c>
       <c r="D3">
-        <v>76.04000000000001</v>
+        <v>78.05</v>
       </c>
       <c r="E3">
-        <v>33.86</v>
+        <v>32.45</v>
       </c>
       <c r="F3">
-        <v>35.33</v>
+        <v>35.98</v>
       </c>
       <c r="G3">
-        <v>91.15000000000001</v>
+        <v>91.48999999999999</v>
       </c>
       <c r="H3">
-        <v>80.23999999999999</v>
+        <v>80.56</v>
       </c>
       <c r="I3">
-        <v>46.8</v>
+        <v>48.21</v>
       </c>
       <c r="J3">
-        <v>105.38</v>
+        <v>106.51</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -637,31 +637,31 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>50.76</v>
+        <v>48.64</v>
       </c>
       <c r="C4">
-        <v>49.86</v>
+        <v>47.78</v>
       </c>
       <c r="D4">
-        <v>53.27</v>
+        <v>51.05</v>
       </c>
       <c r="E4">
-        <v>20.82</v>
+        <v>19.95</v>
       </c>
       <c r="F4">
-        <v>27.83</v>
+        <v>26.67</v>
       </c>
       <c r="G4">
-        <v>66.98999999999999</v>
+        <v>64.2</v>
       </c>
       <c r="H4">
-        <v>104.06</v>
+        <v>99.72</v>
       </c>
       <c r="I4">
-        <v>43.17</v>
+        <v>41.37</v>
       </c>
       <c r="J4">
-        <v>98.41</v>
+        <v>94.31</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -669,31 +669,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>73.47</v>
+        <v>77.06999999999999</v>
       </c>
       <c r="C5">
-        <v>65.5</v>
+        <v>74.45999999999999</v>
       </c>
       <c r="D5">
-        <v>106.7</v>
+        <v>121.91</v>
       </c>
       <c r="E5">
-        <v>72.88</v>
+        <v>69.84</v>
       </c>
       <c r="F5">
-        <v>34.78</v>
+        <v>44.44</v>
       </c>
       <c r="G5">
-        <v>98.41</v>
+        <v>102.44</v>
       </c>
       <c r="H5">
-        <v>79.34999999999999</v>
+        <v>82.3</v>
       </c>
       <c r="I5">
-        <v>43.76</v>
+        <v>50.64</v>
       </c>
       <c r="J5">
-        <v>175.2</v>
+        <v>185.19</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -701,31 +701,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>82.41</v>
+        <v>78.98</v>
       </c>
       <c r="C6">
-        <v>61.32</v>
+        <v>58.76</v>
       </c>
       <c r="D6">
-        <v>45</v>
+        <v>43.12</v>
       </c>
       <c r="E6">
-        <v>32.18</v>
+        <v>30.84</v>
       </c>
       <c r="F6">
-        <v>21.4</v>
+        <v>20.51</v>
       </c>
       <c r="G6">
-        <v>77.29000000000001</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="H6">
-        <v>99.02</v>
+        <v>94.89</v>
       </c>
       <c r="I6">
-        <v>37.02</v>
+        <v>37.6</v>
       </c>
       <c r="J6">
-        <v>67.31999999999999</v>
+        <v>62.37</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -733,31 +733,31 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>35.88</v>
+        <v>34.39</v>
       </c>
       <c r="C7">
-        <v>76.14</v>
+        <v>72.97</v>
       </c>
       <c r="D7">
-        <v>44.62</v>
+        <v>45.77</v>
       </c>
       <c r="E7">
-        <v>10.41</v>
+        <v>9.98</v>
       </c>
       <c r="F7">
-        <v>15.46</v>
+        <v>14.81</v>
       </c>
       <c r="G7">
-        <v>119.25</v>
+        <v>114.29</v>
       </c>
       <c r="H7">
-        <v>64.18000000000001</v>
+        <v>68.51000000000001</v>
       </c>
       <c r="I7">
-        <v>60.06</v>
+        <v>57.55</v>
       </c>
       <c r="J7">
-        <v>89.19</v>
+        <v>85.47</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -765,31 +765,31 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>100.83</v>
+        <v>100.8</v>
       </c>
       <c r="C8">
-        <v>91.31999999999999</v>
+        <v>92.68000000000001</v>
       </c>
       <c r="D8">
-        <v>115.3</v>
+        <v>114.42</v>
       </c>
       <c r="E8">
-        <v>33.09</v>
+        <v>31.71</v>
       </c>
       <c r="F8">
-        <v>69.56999999999999</v>
+        <v>66.67</v>
       </c>
       <c r="G8">
-        <v>95.84999999999999</v>
+        <v>97.78</v>
       </c>
       <c r="H8">
-        <v>73.5</v>
+        <v>74.2</v>
       </c>
       <c r="I8">
-        <v>48.9</v>
+        <v>50.13</v>
       </c>
       <c r="J8">
-        <v>101.9</v>
+        <v>105.16</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -797,31 +797,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>84.73999999999999</v>
+        <v>93.79000000000001</v>
       </c>
       <c r="C9">
-        <v>63.51</v>
+        <v>69.68000000000001</v>
       </c>
       <c r="D9">
-        <v>76.04000000000001</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="E9">
-        <v>22.73</v>
+        <v>21.79</v>
       </c>
       <c r="F9">
-        <v>50.76</v>
+        <v>59.46</v>
       </c>
       <c r="G9">
-        <v>82.79000000000001</v>
+        <v>84.98</v>
       </c>
       <c r="H9">
-        <v>85.22</v>
+        <v>90.19</v>
       </c>
       <c r="I9">
-        <v>58.78</v>
+        <v>65.62</v>
       </c>
       <c r="J9">
-        <v>97.67</v>
+        <v>105.04</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -829,31 +829,31 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>70.93000000000001</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="C10">
-        <v>97.05</v>
+        <v>109.47</v>
       </c>
       <c r="D10">
-        <v>59.86</v>
+        <v>58.99</v>
       </c>
       <c r="E10">
-        <v>18.66</v>
+        <v>17.89</v>
       </c>
       <c r="F10">
-        <v>29.81</v>
+        <v>28.57</v>
       </c>
       <c r="G10">
-        <v>66.78</v>
+        <v>66.67</v>
       </c>
       <c r="H10">
-        <v>75.95999999999999</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="I10">
-        <v>53.12</v>
+        <v>54.31</v>
       </c>
       <c r="J10">
-        <v>74.2</v>
+        <v>74.67</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -861,31 +861,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>140.11</v>
+        <v>162.01</v>
       </c>
       <c r="C11">
-        <v>75.15000000000001</v>
+        <v>75.22</v>
       </c>
       <c r="D11">
-        <v>73.45999999999999</v>
+        <v>86.34</v>
       </c>
       <c r="E11">
-        <v>76.34999999999999</v>
+        <v>73.17</v>
       </c>
       <c r="F11">
-        <v>83.48</v>
+        <v>106.67</v>
       </c>
       <c r="G11">
-        <v>74.76000000000001</v>
+        <v>75.62</v>
       </c>
       <c r="H11">
-        <v>66.48999999999999</v>
+        <v>63.72</v>
       </c>
       <c r="I11">
-        <v>53.89</v>
+        <v>67.93000000000001</v>
       </c>
       <c r="J11">
-        <v>110.34</v>
+        <v>125.67</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -893,31 +893,31 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>117.28</v>
+        <v>116.37</v>
       </c>
       <c r="C12">
-        <v>102.74</v>
+        <v>100</v>
       </c>
       <c r="D12">
-        <v>137.86</v>
+        <v>132.12</v>
       </c>
       <c r="E12">
-        <v>11.36</v>
+        <v>10.88</v>
       </c>
       <c r="F12">
-        <v>30.92</v>
+        <v>29.63</v>
       </c>
       <c r="G12">
-        <v>130.06</v>
+        <v>130.43</v>
       </c>
       <c r="H12">
-        <v>125.04</v>
+        <v>119.83</v>
       </c>
       <c r="I12">
-        <v>74.93000000000001</v>
+        <v>71.81</v>
       </c>
       <c r="J12">
-        <v>198.76</v>
+        <v>193.65</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -925,31 +925,31 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>64.31</v>
+        <v>71.14</v>
       </c>
       <c r="C13">
-        <v>49.33</v>
+        <v>59.99</v>
       </c>
       <c r="D13">
-        <v>74.48999999999999</v>
+        <v>82.37</v>
       </c>
       <c r="E13">
-        <v>13.07</v>
+        <v>12.52</v>
       </c>
       <c r="F13">
-        <v>126.48</v>
+        <v>121.21</v>
       </c>
       <c r="G13">
-        <v>73.66</v>
+        <v>78.43000000000001</v>
       </c>
       <c r="H13">
-        <v>81.48</v>
+        <v>92.25</v>
       </c>
       <c r="I13">
-        <v>84.25</v>
+        <v>94.81</v>
       </c>
       <c r="J13">
-        <v>106.39</v>
+        <v>112.94</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -957,31 +957,31 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>80.12</v>
+        <v>95.7</v>
       </c>
       <c r="C14">
-        <v>28.9</v>
+        <v>35.3</v>
       </c>
       <c r="D14">
-        <v>77.12</v>
+        <v>89.26000000000001</v>
       </c>
       <c r="E14">
-        <v>14.42</v>
+        <v>13.82</v>
       </c>
       <c r="F14">
-        <v>52.17</v>
+        <v>83.33</v>
       </c>
       <c r="G14">
-        <v>73.91</v>
+        <v>87.5</v>
       </c>
       <c r="H14">
-        <v>73.13</v>
+        <v>92.88</v>
       </c>
       <c r="I14">
-        <v>28.25</v>
+        <v>40.27</v>
       </c>
       <c r="J14">
-        <v>60.87</v>
+        <v>72.62</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -989,13 +989,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>67.59</v>
+        <v>70.86</v>
       </c>
       <c r="C15">
-        <v>65.77</v>
+        <v>70.3</v>
       </c>
       <c r="D15">
-        <v>43.55</v>
+        <v>45.8</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1004,16 +1004,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>78.42</v>
+        <v>77.58</v>
       </c>
       <c r="H15">
-        <v>142.15</v>
+        <v>142.51</v>
       </c>
       <c r="I15">
-        <v>75.94</v>
+        <v>82.92</v>
       </c>
       <c r="J15">
-        <v>92.75</v>
+        <v>98.41</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1021,31 +1021,31 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>77.66</v>
+        <v>78.03</v>
       </c>
       <c r="C16">
-        <v>74.68000000000001</v>
+        <v>74.41</v>
       </c>
       <c r="D16">
-        <v>94.62</v>
+        <v>94.05</v>
       </c>
       <c r="E16">
-        <v>37.8</v>
+        <v>38.1</v>
       </c>
       <c r="F16">
-        <v>63.97</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="G16">
-        <v>69.87</v>
+        <v>67.56</v>
       </c>
       <c r="H16">
-        <v>70.98</v>
+        <v>70.67</v>
       </c>
       <c r="I16">
-        <v>47.94</v>
+        <v>46.37</v>
       </c>
       <c r="J16">
-        <v>87.03</v>
+        <v>87.52</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1053,31 +1053,31 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>87.38</v>
+        <v>88.63</v>
       </c>
       <c r="C17">
-        <v>111.8</v>
+        <v>111.56</v>
       </c>
       <c r="D17">
-        <v>126.21</v>
+        <v>126.79</v>
       </c>
       <c r="E17">
-        <v>144.22</v>
+        <v>138.21</v>
       </c>
       <c r="F17">
-        <v>119.94</v>
+        <v>114.94</v>
       </c>
       <c r="G17">
-        <v>67.17</v>
+        <v>64.37</v>
       </c>
       <c r="H17">
-        <v>60.39</v>
+        <v>60.43</v>
       </c>
       <c r="I17">
-        <v>36.61</v>
+        <v>39</v>
       </c>
       <c r="J17">
-        <v>123.32</v>
+        <v>127.27</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1085,31 +1085,31 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>103.21</v>
+        <v>99.47</v>
       </c>
       <c r="C18">
-        <v>81.92</v>
+        <v>78.51000000000001</v>
       </c>
       <c r="D18">
-        <v>124.26</v>
+        <v>119.08</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>43.48</v>
+        <v>50</v>
       </c>
       <c r="G18">
-        <v>101.4</v>
+        <v>99.44</v>
       </c>
       <c r="H18">
-        <v>94.93000000000001</v>
+        <v>90.98</v>
       </c>
       <c r="I18">
-        <v>64.5</v>
+        <v>60.54</v>
       </c>
       <c r="J18">
-        <v>86.95999999999999</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1117,31 +1117,31 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>39.4</v>
+        <v>37.76</v>
       </c>
       <c r="C19">
-        <v>26.39</v>
+        <v>25.29</v>
       </c>
       <c r="D19">
-        <v>67.37</v>
+        <v>64.56</v>
       </c>
       <c r="E19">
-        <v>4.61</v>
+        <v>4.42</v>
       </c>
       <c r="F19">
-        <v>32.74</v>
+        <v>31.37</v>
       </c>
       <c r="G19">
-        <v>66.78</v>
+        <v>64</v>
       </c>
       <c r="H19">
-        <v>70.62</v>
+        <v>67.68000000000001</v>
       </c>
       <c r="I19">
-        <v>48.46</v>
+        <v>46.44</v>
       </c>
       <c r="J19">
-        <v>105.2</v>
+        <v>100.81</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1149,31 +1149,31 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>97.23</v>
+        <v>96.02</v>
       </c>
       <c r="C20">
-        <v>79.78</v>
+        <v>76.45</v>
       </c>
       <c r="D20">
-        <v>75.3</v>
+        <v>80.42</v>
       </c>
       <c r="E20">
-        <v>23.75</v>
+        <v>32.52</v>
       </c>
       <c r="F20">
-        <v>55.65</v>
+        <v>71.11</v>
       </c>
       <c r="G20">
-        <v>45.22</v>
+        <v>43.33</v>
       </c>
       <c r="H20">
-        <v>51.62</v>
+        <v>49.47</v>
       </c>
       <c r="I20">
-        <v>30.01</v>
+        <v>28.75</v>
       </c>
       <c r="J20">
-        <v>71.18000000000001</v>
+        <v>68.22</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1181,31 +1181,31 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>60.9</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="C21">
-        <v>74.43000000000001</v>
+        <v>87.79000000000001</v>
       </c>
       <c r="D21">
-        <v>78.23</v>
+        <v>79.94</v>
       </c>
       <c r="E21">
-        <v>23.75</v>
+        <v>22.76</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>55.01</v>
+        <v>52.71</v>
       </c>
       <c r="H21">
-        <v>68.18000000000001</v>
+        <v>78.28</v>
       </c>
       <c r="I21">
-        <v>58.57</v>
+        <v>56.13</v>
       </c>
       <c r="J21">
-        <v>48.53</v>
+        <v>58.91</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1213,31 +1213,31 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>80.83</v>
+        <v>90.75</v>
       </c>
       <c r="C22">
-        <v>78</v>
+        <v>89.81999999999999</v>
       </c>
       <c r="D22">
-        <v>86.65000000000001</v>
+        <v>93.84999999999999</v>
       </c>
       <c r="E22">
-        <v>27.57</v>
+        <v>26.42</v>
       </c>
       <c r="F22">
-        <v>84.31999999999999</v>
+        <v>86.87</v>
       </c>
       <c r="G22">
-        <v>61.52</v>
+        <v>66.20999999999999</v>
       </c>
       <c r="H22">
-        <v>70.41</v>
+        <v>73.91</v>
       </c>
       <c r="I22">
-        <v>51.71</v>
+        <v>55.18</v>
       </c>
       <c r="J22">
-        <v>66.22</v>
+        <v>80.56999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1245,31 +1245,31 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>58.41</v>
+        <v>61.82</v>
       </c>
       <c r="C23">
-        <v>63.18</v>
+        <v>70.89</v>
       </c>
       <c r="D23">
-        <v>100.21</v>
+        <v>102.65</v>
       </c>
       <c r="E23">
-        <v>28.84</v>
+        <v>27.64</v>
       </c>
       <c r="F23">
-        <v>102.03</v>
+        <v>106.67</v>
       </c>
       <c r="G23">
-        <v>63.92</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H23">
-        <v>64.29000000000001</v>
+        <v>61.61</v>
       </c>
       <c r="I23">
-        <v>49.99</v>
+        <v>52.91</v>
       </c>
       <c r="J23">
-        <v>79.16</v>
+        <v>78.16</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1277,31 +1277,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>111.2</v>
+        <v>112.85</v>
       </c>
       <c r="C24">
-        <v>119.47</v>
+        <v>126.67</v>
       </c>
       <c r="D24">
-        <v>118.06</v>
+        <v>121.28</v>
       </c>
       <c r="E24">
-        <v>43.27</v>
+        <v>41.46</v>
       </c>
       <c r="F24">
-        <v>67.31999999999999</v>
+        <v>64.52</v>
       </c>
       <c r="G24">
-        <v>91.3</v>
+        <v>87.5</v>
       </c>
       <c r="H24">
-        <v>77.53</v>
+        <v>74.3</v>
       </c>
       <c r="I24">
-        <v>51.88</v>
+        <v>53.68</v>
       </c>
       <c r="J24">
-        <v>63.24</v>
+        <v>60.61</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1309,31 +1309,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>68.53</v>
+        <v>83.05</v>
       </c>
       <c r="C25">
-        <v>68.03</v>
+        <v>100.44</v>
       </c>
       <c r="D25">
-        <v>43.18</v>
+        <v>51.64</v>
       </c>
       <c r="E25">
-        <v>26.13</v>
+        <v>25.05</v>
       </c>
       <c r="F25">
-        <v>101.19</v>
+        <v>109.09</v>
       </c>
       <c r="G25">
-        <v>41.74</v>
+        <v>43.33</v>
       </c>
       <c r="H25">
-        <v>72.88</v>
+        <v>86.3</v>
       </c>
       <c r="I25">
-        <v>42.96</v>
+        <v>51.45</v>
       </c>
       <c r="J25">
-        <v>75.20999999999999</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1341,31 +1341,31 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>76.81</v>
+        <v>110.84</v>
       </c>
       <c r="C26">
-        <v>48.91</v>
+        <v>60.94</v>
       </c>
       <c r="D26">
-        <v>72.59999999999999</v>
+        <v>92.94</v>
       </c>
       <c r="E26">
-        <v>10.41</v>
+        <v>9.98</v>
       </c>
       <c r="F26">
-        <v>92.75</v>
+        <v>103.7</v>
       </c>
       <c r="G26">
-        <v>54.92</v>
+        <v>63.16</v>
       </c>
       <c r="H26">
-        <v>64.76000000000001</v>
+        <v>76.88</v>
       </c>
       <c r="I26">
-        <v>63.42</v>
+        <v>66.70999999999999</v>
       </c>
       <c r="J26">
-        <v>41.36</v>
+        <v>97.3</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1373,31 +1373,31 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>89.72</v>
+        <v>87.66</v>
       </c>
       <c r="C27">
-        <v>70.33</v>
+        <v>72.06999999999999</v>
       </c>
       <c r="D27">
-        <v>102.63</v>
+        <v>104.26</v>
       </c>
       <c r="E27">
-        <v>71.84999999999999</v>
+        <v>76.03</v>
       </c>
       <c r="F27">
-        <v>48.39</v>
+        <v>46.38</v>
       </c>
       <c r="G27">
-        <v>61.52</v>
+        <v>59.86</v>
       </c>
       <c r="H27">
-        <v>89.14</v>
+        <v>91.77</v>
       </c>
       <c r="I27">
-        <v>54.72</v>
+        <v>53.23</v>
       </c>
       <c r="J27">
-        <v>89.48</v>
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1405,31 +1405,31 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>93.34</v>
+        <v>89.45</v>
       </c>
       <c r="C28">
-        <v>40.36</v>
+        <v>38.67</v>
       </c>
       <c r="D28">
-        <v>132.59</v>
+        <v>129</v>
       </c>
       <c r="E28">
-        <v>152.97</v>
+        <v>146.59</v>
       </c>
       <c r="F28">
-        <v>52.17</v>
+        <v>50</v>
       </c>
       <c r="G28">
-        <v>62.24</v>
+        <v>59.65</v>
       </c>
       <c r="H28">
-        <v>80.43000000000001</v>
+        <v>78.42</v>
       </c>
       <c r="I28">
-        <v>62.7</v>
+        <v>60.09</v>
       </c>
       <c r="J28">
-        <v>91.43000000000001</v>
+        <v>87.62</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1437,31 +1437,31 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>101.89</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="C29">
-        <v>98.91</v>
+        <v>100</v>
       </c>
       <c r="D29">
-        <v>153.59</v>
+        <v>160.88</v>
       </c>
       <c r="E29">
-        <v>195.92</v>
+        <v>224.04</v>
       </c>
       <c r="F29">
-        <v>63.77</v>
+        <v>61.11</v>
       </c>
       <c r="G29">
-        <v>67.58</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="H29">
-        <v>65.20999999999999</v>
+        <v>80.03</v>
       </c>
       <c r="I29">
-        <v>62.02</v>
+        <v>60.44</v>
       </c>
       <c r="J29">
-        <v>125.95</v>
+        <v>124.91</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1469,31 +1469,31 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>40.49</v>
+        <v>43.45</v>
       </c>
       <c r="C30">
-        <v>36.39</v>
+        <v>47.68</v>
       </c>
       <c r="D30">
-        <v>56.65</v>
+        <v>64.43000000000001</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>11.59</v>
+        <v>11.11</v>
       </c>
       <c r="G30">
-        <v>31.88</v>
+        <v>36.11</v>
       </c>
       <c r="H30">
-        <v>73.47</v>
+        <v>80.39</v>
       </c>
       <c r="I30">
-        <v>59.54</v>
+        <v>59.99</v>
       </c>
       <c r="J30">
-        <v>84.89</v>
+        <v>94.92</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1501,31 +1501,31 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>140.7</v>
+        <v>134.84</v>
       </c>
       <c r="C31">
-        <v>123.88</v>
+        <v>118.71</v>
       </c>
       <c r="D31">
-        <v>102.7</v>
+        <v>98.42</v>
       </c>
       <c r="E31">
-        <v>11.36</v>
+        <v>10.88</v>
       </c>
       <c r="F31">
-        <v>60.87</v>
+        <v>58.33</v>
       </c>
       <c r="G31">
-        <v>89.44</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="H31">
-        <v>137.53</v>
+        <v>131.8</v>
       </c>
       <c r="I31">
-        <v>45.19</v>
+        <v>43.31</v>
       </c>
       <c r="J31">
-        <v>89.20999999999999</v>
+        <v>85.5</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1533,31 +1533,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>41.05</v>
+        <v>43.55</v>
       </c>
       <c r="C32">
-        <v>28.44</v>
+        <v>32.12</v>
       </c>
       <c r="D32">
-        <v>56.44</v>
+        <v>58.92</v>
       </c>
       <c r="E32">
-        <v>17.68</v>
+        <v>21.36</v>
       </c>
       <c r="F32">
-        <v>34.78</v>
+        <v>33.33</v>
       </c>
       <c r="G32">
-        <v>47.43</v>
+        <v>45.45</v>
       </c>
       <c r="H32">
-        <v>88.69</v>
+        <v>85.94</v>
       </c>
       <c r="I32">
-        <v>36.79</v>
+        <v>35.88</v>
       </c>
       <c r="J32">
-        <v>46.38</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1565,31 +1565,31 @@
         <v>41</v>
       </c>
       <c r="B33">
-        <v>104.8</v>
+        <v>104.01</v>
       </c>
       <c r="C33">
-        <v>90</v>
+        <v>91.95999999999999</v>
       </c>
       <c r="D33">
-        <v>81.70999999999999</v>
+        <v>81.91</v>
       </c>
       <c r="E33">
-        <v>20.11</v>
+        <v>21.19</v>
       </c>
       <c r="F33">
-        <v>18.41</v>
+        <v>21.57</v>
       </c>
       <c r="G33">
-        <v>90.33</v>
+        <v>91.45</v>
       </c>
       <c r="H33">
-        <v>92.55</v>
+        <v>93.04000000000001</v>
       </c>
       <c r="I33">
-        <v>52.21</v>
+        <v>52.11</v>
       </c>
       <c r="J33">
-        <v>94.78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1597,31 +1597,31 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>147.81</v>
+        <v>146.65</v>
       </c>
       <c r="C34">
-        <v>127.66</v>
+        <v>130.81</v>
       </c>
       <c r="D34">
-        <v>64.17</v>
+        <v>76.34</v>
       </c>
       <c r="E34">
-        <v>39.02</v>
+        <v>47.15</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>17.78</v>
       </c>
       <c r="G34">
-        <v>153.04</v>
+        <v>163.33</v>
       </c>
       <c r="H34">
-        <v>116.51</v>
+        <v>117.15</v>
       </c>
       <c r="I34">
-        <v>68.76000000000001</v>
+        <v>66.73</v>
       </c>
       <c r="J34">
-        <v>119.47</v>
+        <v>120.29</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1629,31 +1629,31 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>103.7</v>
+        <v>100.56</v>
       </c>
       <c r="C35">
-        <v>99.09</v>
+        <v>105.04</v>
       </c>
       <c r="D35">
-        <v>83.15000000000001</v>
+        <v>79.69</v>
       </c>
       <c r="E35">
         <v>0</v>
       </c>
       <c r="F35">
-        <v>23.19</v>
+        <v>22.22</v>
       </c>
       <c r="G35">
-        <v>81.56</v>
+        <v>82.76000000000001</v>
       </c>
       <c r="H35">
-        <v>95.18000000000001</v>
+        <v>95.7</v>
       </c>
       <c r="I35">
-        <v>53.46</v>
+        <v>54.79</v>
       </c>
       <c r="J35">
-        <v>98.02</v>
+        <v>96.97</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -1661,31 +1661,31 @@
         <v>44</v>
       </c>
       <c r="B36">
-        <v>84.39</v>
+        <v>79.61</v>
       </c>
       <c r="C36">
-        <v>81.81999999999999</v>
+        <v>78.41</v>
       </c>
       <c r="D36">
-        <v>66.70999999999999</v>
+        <v>63.93</v>
       </c>
       <c r="E36">
-        <v>26.9</v>
+        <v>25.78</v>
       </c>
       <c r="F36">
-        <v>43.48</v>
+        <v>41.67</v>
       </c>
       <c r="G36">
-        <v>98.94</v>
+        <v>94.81</v>
       </c>
       <c r="H36">
-        <v>116.65</v>
+        <v>110.85</v>
       </c>
       <c r="I36">
-        <v>43.17</v>
+        <v>41.37</v>
       </c>
       <c r="J36">
-        <v>86.95999999999999</v>
+        <v>83.33</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -1693,31 +1693,31 @@
         <v>45</v>
       </c>
       <c r="B37">
-        <v>100.3</v>
+        <v>96.12</v>
       </c>
       <c r="C37">
-        <v>56.72</v>
+        <v>54.36</v>
       </c>
       <c r="D37">
-        <v>95.25</v>
+        <v>91.28</v>
       </c>
       <c r="E37">
-        <v>16.09</v>
+        <v>15.42</v>
       </c>
       <c r="F37">
-        <v>15.46</v>
+        <v>14.81</v>
       </c>
       <c r="G37">
-        <v>86.13</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="H37">
-        <v>58.4</v>
+        <v>55.96</v>
       </c>
       <c r="I37">
-        <v>46.14</v>
+        <v>44.21</v>
       </c>
       <c r="J37">
-        <v>91.93000000000001</v>
+        <v>88.09999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -1725,31 +1725,31 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>74.41</v>
+        <v>86.48</v>
       </c>
       <c r="C38">
-        <v>53.75</v>
+        <v>58.81</v>
       </c>
       <c r="D38">
-        <v>102.98</v>
+        <v>98.69</v>
       </c>
       <c r="E38">
-        <v>17.68</v>
+        <v>16.94</v>
       </c>
       <c r="F38">
-        <v>8.699999999999999</v>
+        <v>8.33</v>
       </c>
       <c r="G38">
-        <v>44.72</v>
+        <v>45.24</v>
       </c>
       <c r="H38">
-        <v>60.3</v>
+        <v>69.8</v>
       </c>
       <c r="I38">
-        <v>46.89</v>
+        <v>51.6</v>
       </c>
       <c r="J38">
-        <v>64.59999999999999</v>
+        <v>73.81</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1757,31 +1757,31 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>87.06999999999999</v>
+        <v>84.38</v>
       </c>
       <c r="C39">
-        <v>86.33</v>
+        <v>82.73</v>
       </c>
       <c r="D39">
-        <v>86.95</v>
+        <v>83.31999999999999</v>
       </c>
       <c r="E39">
-        <v>16.11</v>
+        <v>19.34</v>
       </c>
       <c r="F39">
-        <v>12.42</v>
+        <v>16.67</v>
       </c>
       <c r="G39">
-        <v>77.22</v>
+        <v>75.23</v>
       </c>
       <c r="H39">
-        <v>77.05</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="I39">
-        <v>69.06999999999999</v>
+        <v>66.58</v>
       </c>
       <c r="J39">
-        <v>107.87</v>
+        <v>103.37</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1789,31 +1789,31 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>105.25</v>
+        <v>100.87</v>
       </c>
       <c r="C40">
-        <v>103.76</v>
+        <v>99.44</v>
       </c>
       <c r="D40">
-        <v>111.53</v>
+        <v>106.88</v>
       </c>
       <c r="E40">
-        <v>20.82</v>
+        <v>19.95</v>
       </c>
       <c r="F40">
-        <v>15.46</v>
+        <v>14.81</v>
       </c>
       <c r="G40">
-        <v>177.51</v>
+        <v>170.11</v>
       </c>
       <c r="H40">
-        <v>75.89</v>
+        <v>72.73</v>
       </c>
       <c r="I40">
-        <v>76.27</v>
+        <v>73.09</v>
       </c>
       <c r="J40">
-        <v>102.38</v>
+        <v>98.11</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -1821,31 +1821,31 @@
         <v>49</v>
       </c>
       <c r="B41">
-        <v>71.39</v>
+        <v>68.42</v>
       </c>
       <c r="C41">
-        <v>115.94</v>
+        <v>111.11</v>
       </c>
       <c r="D41">
-        <v>122.89</v>
+        <v>117.77</v>
       </c>
       <c r="E41">
-        <v>19.51</v>
+        <v>18.7</v>
       </c>
       <c r="F41">
-        <v>13.91</v>
+        <v>13.33</v>
       </c>
       <c r="G41">
-        <v>41.36</v>
+        <v>39.64</v>
       </c>
       <c r="H41">
-        <v>75.48999999999999</v>
+        <v>72.34999999999999</v>
       </c>
       <c r="I41">
-        <v>85.40000000000001</v>
+        <v>81.84999999999999</v>
       </c>
       <c r="J41">
-        <v>91.58</v>
+        <v>87.76000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -1853,31 +1853,31 @@
         <v>50</v>
       </c>
       <c r="B42">
-        <v>89.61</v>
+        <v>88.02</v>
       </c>
       <c r="C42">
-        <v>36.29</v>
+        <v>34.78</v>
       </c>
       <c r="D42">
-        <v>66.47</v>
+        <v>63.7</v>
       </c>
       <c r="E42">
-        <v>24.6</v>
+        <v>42.28</v>
       </c>
       <c r="F42">
-        <v>9.279999999999999</v>
+        <v>26.67</v>
       </c>
       <c r="G42">
-        <v>64.06999999999999</v>
+        <v>64.91</v>
       </c>
       <c r="H42">
-        <v>83.90000000000001</v>
+        <v>81.23</v>
       </c>
       <c r="I42">
-        <v>54.13</v>
+        <v>54.96</v>
       </c>
       <c r="J42">
-        <v>78.26000000000001</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -1885,31 +1885,31 @@
         <v>51</v>
       </c>
       <c r="B43">
-        <v>114.43</v>
+        <v>112.87</v>
       </c>
       <c r="C43">
-        <v>81.98999999999999</v>
+        <v>78.56999999999999</v>
       </c>
       <c r="D43">
-        <v>67.58</v>
+        <v>64.76000000000001</v>
       </c>
       <c r="E43">
-        <v>10.41</v>
+        <v>9.98</v>
       </c>
       <c r="F43">
-        <v>15.46</v>
+        <v>14.81</v>
       </c>
       <c r="G43">
-        <v>60.65</v>
+        <v>58.12</v>
       </c>
       <c r="H43">
-        <v>85.38</v>
+        <v>81.81999999999999</v>
       </c>
       <c r="I43">
-        <v>64.73999999999999</v>
+        <v>62.04</v>
       </c>
       <c r="J43">
-        <v>128.63</v>
+        <v>123.27</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -1917,31 +1917,31 @@
         <v>52</v>
       </c>
       <c r="B44">
-        <v>71.03</v>
+        <v>68.06999999999999</v>
       </c>
       <c r="C44">
-        <v>79.02</v>
+        <v>75.73</v>
       </c>
       <c r="D44">
-        <v>57.23</v>
+        <v>54.84</v>
       </c>
       <c r="E44">
-        <v>5.09</v>
+        <v>4.88</v>
       </c>
       <c r="F44">
-        <v>10.7</v>
+        <v>10.26</v>
       </c>
       <c r="G44">
-        <v>78.97</v>
+        <v>75.68000000000001</v>
       </c>
       <c r="H44">
-        <v>61.5</v>
+        <v>58.94</v>
       </c>
       <c r="I44">
-        <v>46.93</v>
+        <v>44.98</v>
       </c>
       <c r="J44">
-        <v>163.68</v>
+        <v>156.86</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SalesTrend/SalesTrend_CRB.xlsx
+++ b/Data/SalesTrend/SalesTrend_CRB.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>FFTR</t>
   </si>
@@ -44,6 +44,135 @@
   </si>
   <si>
     <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CRB</t>
+  </si>
+  <si>
+    <t>CRB10</t>
+  </si>
+  <si>
+    <t>CRB11</t>
+  </si>
+  <si>
+    <t>CRB12</t>
+  </si>
+  <si>
+    <t>CRB13</t>
+  </si>
+  <si>
+    <t>CRB14</t>
+  </si>
+  <si>
+    <t>CRB16</t>
+  </si>
+  <si>
+    <t>CRB20</t>
+  </si>
+  <si>
+    <t>CRB21</t>
+  </si>
+  <si>
+    <t>CRB22</t>
+  </si>
+  <si>
+    <t>CRB23</t>
+  </si>
+  <si>
+    <t>CRB24</t>
+  </si>
+  <si>
+    <t>CRB25</t>
+  </si>
+  <si>
+    <t>CRB26</t>
+  </si>
+  <si>
+    <t>CRB30</t>
+  </si>
+  <si>
+    <t>CRB31</t>
+  </si>
+  <si>
+    <t>CRB32</t>
+  </si>
+  <si>
+    <t>CRB33</t>
+  </si>
+  <si>
+    <t>CRB34</t>
+  </si>
+  <si>
+    <t>CRB35</t>
+  </si>
+  <si>
+    <t>CRB40</t>
+  </si>
+  <si>
+    <t>CRB41</t>
+  </si>
+  <si>
+    <t>CRB42</t>
+  </si>
+  <si>
+    <t>CRB43</t>
+  </si>
+  <si>
+    <t>CRB44</t>
+  </si>
+  <si>
+    <t>CRB50</t>
+  </si>
+  <si>
+    <t>CRB51</t>
+  </si>
+  <si>
+    <t>CRB52</t>
+  </si>
+  <si>
+    <t>CRB53</t>
+  </si>
+  <si>
+    <t>CRB54</t>
+  </si>
+  <si>
+    <t>CRB55</t>
+  </si>
+  <si>
+    <t>CRB60</t>
+  </si>
+  <si>
+    <t>CRB61</t>
+  </si>
+  <si>
+    <t>CRB62</t>
+  </si>
+  <si>
+    <t>CRB63</t>
+  </si>
+  <si>
+    <t>CRB64</t>
+  </si>
+  <si>
+    <t>CRB65</t>
+  </si>
+  <si>
+    <t>CRB70</t>
+  </si>
+  <si>
+    <t>CRB71</t>
+  </si>
+  <si>
+    <t>CRB72</t>
+  </si>
+  <si>
+    <t>CRB73</t>
+  </si>
+  <si>
+    <t>CRB74</t>
+  </si>
+  <si>
+    <t>CRB75</t>
   </si>
 </sst>
 </file>
@@ -401,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -439,6 +568,1382 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>53.97</v>
+      </c>
+      <c r="C2">
+        <v>55.83</v>
+      </c>
+      <c r="D2">
+        <v>56.08</v>
+      </c>
+      <c r="E2">
+        <v>26.49</v>
+      </c>
+      <c r="F2">
+        <v>60.94</v>
+      </c>
+      <c r="G2">
+        <v>48.54</v>
+      </c>
+      <c r="H2">
+        <v>56.2</v>
+      </c>
+      <c r="I2">
+        <v>30.67</v>
+      </c>
+      <c r="J2">
+        <v>48.34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3">
+        <v>23.11</v>
+      </c>
+      <c r="C3">
+        <v>23.59</v>
+      </c>
+      <c r="D3">
+        <v>47.15</v>
+      </c>
+      <c r="E3">
+        <v>48.58</v>
+      </c>
+      <c r="F3">
+        <v>45.93</v>
+      </c>
+      <c r="G3">
+        <v>21.81</v>
+      </c>
+      <c r="H3">
+        <v>35.66</v>
+      </c>
+      <c r="I3">
+        <v>18.23</v>
+      </c>
+      <c r="J3">
+        <v>32.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>10.06</v>
+      </c>
+      <c r="C4">
+        <v>13.36</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>13.42</v>
+      </c>
+      <c r="H4">
+        <v>15.93</v>
+      </c>
+      <c r="I4">
+        <v>16.74</v>
+      </c>
+      <c r="J4">
+        <v>89.86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>17.39</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>46.55</v>
+      </c>
+      <c r="E5">
+        <v>249.82</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>12.45</v>
+      </c>
+      <c r="H5">
+        <v>51.29</v>
+      </c>
+      <c r="I5">
+        <v>16.99</v>
+      </c>
+      <c r="J5">
+        <v>14.55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>10.09</v>
+      </c>
+      <c r="C6">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="D6">
+        <v>39.5</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>114.81</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>23.98</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>72.51000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>51.24</v>
+      </c>
+      <c r="D7">
+        <v>48.83</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>129.17</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>28.46</v>
+      </c>
+      <c r="I7">
+        <v>17.42</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>37.2</v>
+      </c>
+      <c r="C8">
+        <v>41.52</v>
+      </c>
+      <c r="D8">
+        <v>80.98</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="H8">
+        <v>42.68</v>
+      </c>
+      <c r="I8">
+        <v>31.88</v>
+      </c>
+      <c r="J8">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>33.55</v>
+      </c>
+      <c r="C9">
+        <v>30.42</v>
+      </c>
+      <c r="D9">
+        <v>21.49</v>
+      </c>
+      <c r="E9">
+        <v>10.73</v>
+      </c>
+      <c r="F9">
+        <v>35.63</v>
+      </c>
+      <c r="G9">
+        <v>52.99</v>
+      </c>
+      <c r="H9">
+        <v>44.16</v>
+      </c>
+      <c r="I9">
+        <v>25.61</v>
+      </c>
+      <c r="J9">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>29.26</v>
+      </c>
+      <c r="C10">
+        <v>52.39</v>
+      </c>
+      <c r="D10">
+        <v>12.42</v>
+      </c>
+      <c r="E10">
+        <v>60.19</v>
+      </c>
+      <c r="F10">
+        <v>103.33</v>
+      </c>
+      <c r="G10">
+        <v>28.31</v>
+      </c>
+      <c r="H10">
+        <v>34.49</v>
+      </c>
+      <c r="I10">
+        <v>28.1</v>
+      </c>
+      <c r="J10">
+        <v>35.03</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>62.53</v>
+      </c>
+      <c r="C11">
+        <v>41.69</v>
+      </c>
+      <c r="D11">
+        <v>13.87</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>114.81</v>
+      </c>
+      <c r="G11">
+        <v>103.33</v>
+      </c>
+      <c r="H11">
+        <v>28.86</v>
+      </c>
+      <c r="I11">
+        <v>16.47</v>
+      </c>
+      <c r="J11">
+        <v>42.61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>39.17</v>
+      </c>
+      <c r="C12">
+        <v>81.69</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>36.26</v>
+      </c>
+      <c r="H12">
+        <v>63.63</v>
+      </c>
+      <c r="I12">
+        <v>13.2</v>
+      </c>
+      <c r="J12">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>11.31</v>
+      </c>
+      <c r="C13">
+        <v>12.54</v>
+      </c>
+      <c r="D13">
+        <v>21.31</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>15.2</v>
+      </c>
+      <c r="H13">
+        <v>47.32</v>
+      </c>
+      <c r="I13">
+        <v>48.79</v>
+      </c>
+      <c r="J13">
+        <v>37.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>47.49</v>
+      </c>
+      <c r="C14">
+        <v>18.45</v>
+      </c>
+      <c r="D14">
+        <v>47.16</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>59.05</v>
+      </c>
+      <c r="H14">
+        <v>51.34</v>
+      </c>
+      <c r="I14">
+        <v>28.2</v>
+      </c>
+      <c r="J14">
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15">
+        <v>21.88</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>34.17</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>86.11</v>
+      </c>
+      <c r="H15">
+        <v>47.08</v>
+      </c>
+      <c r="I15">
+        <v>26.84</v>
+      </c>
+      <c r="J15">
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16">
+        <v>45.61</v>
+      </c>
+      <c r="C16">
+        <v>58.75</v>
+      </c>
+      <c r="D16">
+        <v>38.56</v>
+      </c>
+      <c r="E16">
+        <v>11.29</v>
+      </c>
+      <c r="F16">
+        <v>43.66</v>
+      </c>
+      <c r="G16">
+        <v>28.44</v>
+      </c>
+      <c r="H16">
+        <v>58.42</v>
+      </c>
+      <c r="I16">
+        <v>37.6</v>
+      </c>
+      <c r="J16">
+        <v>11.44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>38.34</v>
+      </c>
+      <c r="C17">
+        <v>102.58</v>
+      </c>
+      <c r="D17">
+        <v>23.97</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>41.33</v>
+      </c>
+      <c r="H17">
+        <v>64.83</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>37.94</v>
+      </c>
+      <c r="C18">
+        <v>35.57</v>
+      </c>
+      <c r="D18">
+        <v>30.21</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>64.48</v>
+      </c>
+      <c r="I18">
+        <v>37.62</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19">
+        <v>36.34</v>
+      </c>
+      <c r="C19">
+        <v>20.99</v>
+      </c>
+      <c r="D19">
+        <v>52.48</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>103.33</v>
+      </c>
+      <c r="G19">
+        <v>30.39</v>
+      </c>
+      <c r="H19">
+        <v>25.51</v>
+      </c>
+      <c r="I19">
+        <v>45.74</v>
+      </c>
+      <c r="J19">
+        <v>31.31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20">
+        <v>37.73</v>
+      </c>
+      <c r="C20">
+        <v>27.41</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>60.19</v>
+      </c>
+      <c r="F20">
+        <v>86.11</v>
+      </c>
+      <c r="G20">
+        <v>34.44</v>
+      </c>
+      <c r="H20">
+        <v>91.11</v>
+      </c>
+      <c r="I20">
+        <v>68.38</v>
+      </c>
+      <c r="J20">
+        <v>19.14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21">
+        <v>88.64</v>
+      </c>
+      <c r="C21">
+        <v>157.07</v>
+      </c>
+      <c r="D21">
+        <v>81.79000000000001</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>129.17</v>
+      </c>
+      <c r="G21">
+        <v>62.63</v>
+      </c>
+      <c r="H21">
+        <v>42.09</v>
+      </c>
+      <c r="I21">
+        <v>26.97</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22">
+        <v>91.51000000000001</v>
+      </c>
+      <c r="C22">
+        <v>103.96</v>
+      </c>
+      <c r="D22">
+        <v>153.96</v>
+      </c>
+      <c r="E22">
+        <v>14.66</v>
+      </c>
+      <c r="F22">
+        <v>189.44</v>
+      </c>
+      <c r="G22">
+        <v>90.98999999999999</v>
+      </c>
+      <c r="H22">
+        <v>102.88</v>
+      </c>
+      <c r="I22">
+        <v>62.19</v>
+      </c>
+      <c r="J22">
+        <v>118.83</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23">
+        <v>174.42</v>
+      </c>
+      <c r="C23">
+        <v>181.89</v>
+      </c>
+      <c r="D23">
+        <v>403.91</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>344.44</v>
+      </c>
+      <c r="G23">
+        <v>202.17</v>
+      </c>
+      <c r="H23">
+        <v>157.7</v>
+      </c>
+      <c r="I23">
+        <v>158.84</v>
+      </c>
+      <c r="J23">
+        <v>162.09</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24">
+        <v>49.36</v>
+      </c>
+      <c r="C24">
+        <v>72.09</v>
+      </c>
+      <c r="D24">
+        <v>90.45</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>206.67</v>
+      </c>
+      <c r="G24">
+        <v>24.03</v>
+      </c>
+      <c r="H24">
+        <v>97.54000000000001</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25">
+        <v>52.9</v>
+      </c>
+      <c r="C25">
+        <v>39.74</v>
+      </c>
+      <c r="D25">
+        <v>61.8</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>52.99</v>
+      </c>
+      <c r="I25">
+        <v>89.7</v>
+      </c>
+      <c r="J25">
+        <v>99.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26">
+        <v>59.86</v>
+      </c>
+      <c r="C26">
+        <v>30.85</v>
+      </c>
+      <c r="D26">
+        <v>52.56</v>
+      </c>
+      <c r="E26">
+        <v>63.92</v>
+      </c>
+      <c r="F26">
+        <v>103.33</v>
+      </c>
+      <c r="G26">
+        <v>121.57</v>
+      </c>
+      <c r="H26">
+        <v>86.95</v>
+      </c>
+      <c r="I26">
+        <v>32.8</v>
+      </c>
+      <c r="J26">
+        <v>147.62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27">
+        <v>20.88</v>
+      </c>
+      <c r="C27">
+        <v>18.69</v>
+      </c>
+      <c r="D27">
+        <v>48.74</v>
+      </c>
+      <c r="E27">
+        <v>11.19</v>
+      </c>
+      <c r="F27">
+        <v>14.98</v>
+      </c>
+      <c r="G27">
+        <v>32.42</v>
+      </c>
+      <c r="H27">
+        <v>33.7</v>
+      </c>
+      <c r="I27">
+        <v>16.26</v>
+      </c>
+      <c r="J27">
+        <v>46.44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>30.6</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>43.74</v>
+      </c>
+      <c r="E28">
+        <v>51.67</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>48.44</v>
+      </c>
+      <c r="H28">
+        <v>49.68</v>
+      </c>
+      <c r="I28">
+        <v>14.51</v>
+      </c>
+      <c r="J28">
+        <v>44.93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C29">
+        <v>28.31</v>
+      </c>
+      <c r="D29">
+        <v>71.8</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>31.79</v>
+      </c>
+      <c r="H29">
+        <v>31.35</v>
+      </c>
+      <c r="I29">
+        <v>5.98</v>
+      </c>
+      <c r="J29">
+        <v>92.26000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <v>47.7</v>
+      </c>
+      <c r="C30">
+        <v>41.98</v>
+      </c>
+      <c r="D30">
+        <v>80.34</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>129.17</v>
+      </c>
+      <c r="G30">
+        <v>60.78</v>
+      </c>
+      <c r="H30">
+        <v>86.90000000000001</v>
+      </c>
+      <c r="I30">
+        <v>79.56</v>
+      </c>
+      <c r="J30">
+        <v>67.76000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31">
+        <v>12.77</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>6.67</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>8.470000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>15.27</v>
+      </c>
+      <c r="D32">
+        <v>49.62</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>34.44</v>
+      </c>
+      <c r="H32">
+        <v>4.59</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>17.82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>111.43</v>
+      </c>
+      <c r="C33">
+        <v>85.33</v>
+      </c>
+      <c r="D33">
+        <v>49.18</v>
+      </c>
+      <c r="E33">
+        <v>23.09</v>
+      </c>
+      <c r="F33">
+        <v>65.95999999999999</v>
+      </c>
+      <c r="G33">
+        <v>55.01</v>
+      </c>
+      <c r="H33">
+        <v>73.44</v>
+      </c>
+      <c r="I33">
+        <v>24.39</v>
+      </c>
+      <c r="J33">
+        <v>53.72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>206.46</v>
+      </c>
+      <c r="C34">
+        <v>149.97</v>
+      </c>
+      <c r="D34">
+        <v>70.39</v>
+      </c>
+      <c r="E34">
+        <v>60.19</v>
+      </c>
+      <c r="F34">
+        <v>114.81</v>
+      </c>
+      <c r="G34">
+        <v>145.54</v>
+      </c>
+      <c r="H34">
+        <v>139.92</v>
+      </c>
+      <c r="I34">
+        <v>3.36</v>
+      </c>
+      <c r="J34">
+        <v>22.22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>53.99</v>
+      </c>
+      <c r="C35">
+        <v>34.97</v>
+      </c>
+      <c r="D35">
+        <v>29.19</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>24.6</v>
+      </c>
+      <c r="H35">
+        <v>26.76</v>
+      </c>
+      <c r="I35">
+        <v>21.22</v>
+      </c>
+      <c r="J35">
+        <v>67.39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>113.79</v>
+      </c>
+      <c r="C36">
+        <v>93.29000000000001</v>
+      </c>
+      <c r="D36">
+        <v>73.18000000000001</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>18.45</v>
+      </c>
+      <c r="H36">
+        <v>57.41</v>
+      </c>
+      <c r="I36">
+        <v>40.44</v>
+      </c>
+      <c r="J36">
+        <v>118.1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>102.44</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>63.92</v>
+      </c>
+      <c r="F37">
+        <v>129.17</v>
+      </c>
+      <c r="G37">
+        <v>49.21</v>
+      </c>
+      <c r="H37">
+        <v>48.23</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>57.41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>20.62</v>
+      </c>
+      <c r="C38">
+        <v>82.34999999999999</v>
+      </c>
+      <c r="D38">
+        <v>53.15</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>103.33</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>51.51</v>
+      </c>
+      <c r="I38">
+        <v>53.95</v>
+      </c>
+      <c r="J38">
+        <v>16.15</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>47.89</v>
+      </c>
+      <c r="C39">
+        <v>77.84</v>
+      </c>
+      <c r="D39">
+        <v>49.46</v>
+      </c>
+      <c r="E39">
+        <v>73.19</v>
+      </c>
+      <c r="F39">
+        <v>25.83</v>
+      </c>
+      <c r="G39">
+        <v>86.48999999999999</v>
+      </c>
+      <c r="H39">
+        <v>61.33</v>
+      </c>
+      <c r="I39">
+        <v>50.26</v>
+      </c>
+      <c r="J39">
+        <v>70.29000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>70.37</v>
+      </c>
+      <c r="C40">
+        <v>95.18000000000001</v>
+      </c>
+      <c r="D40">
+        <v>38.11</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>150.69</v>
+      </c>
+      <c r="H40">
+        <v>61.11</v>
+      </c>
+      <c r="I40">
+        <v>87.52</v>
+      </c>
+      <c r="J40">
+        <v>68.89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>12.87</v>
+      </c>
+      <c r="C41">
+        <v>93.42</v>
+      </c>
+      <c r="D41">
+        <v>57.71</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>48.06</v>
+      </c>
+      <c r="H41">
+        <v>56.62</v>
+      </c>
+      <c r="I41">
+        <v>51.07</v>
+      </c>
+      <c r="J41">
+        <v>53.68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>68.89</v>
+      </c>
+      <c r="C42">
+        <v>44.93</v>
+      </c>
+      <c r="D42">
+        <v>87.02</v>
+      </c>
+      <c r="E42">
+        <v>230.74</v>
+      </c>
+      <c r="F42">
+        <v>103.33</v>
+      </c>
+      <c r="G42">
+        <v>47.69</v>
+      </c>
+      <c r="H42">
+        <v>98.17</v>
+      </c>
+      <c r="I42">
+        <v>89.56999999999999</v>
+      </c>
+      <c r="J42">
+        <v>70.06</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43">
+        <v>86.11</v>
+      </c>
+      <c r="C43">
+        <v>75.98</v>
+      </c>
+      <c r="D43">
+        <v>44.31</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>129.17</v>
+      </c>
+      <c r="H43">
+        <v>39.5</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>126.9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44">
+        <v>28.19</v>
+      </c>
+      <c r="C44">
+        <v>77.05</v>
+      </c>
+      <c r="D44">
+        <v>20.85</v>
+      </c>
+      <c r="E44">
+        <v>110.36</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>66.67</v>
+      </c>
+      <c r="H44">
+        <v>27.81</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>36.9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
